--- a/Lab3/file/sample_plot.xlsx
+++ b/Lab3/file/sample_plot.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
   <si>
     <t>MIN-SEARCH</t>
   </si>
@@ -34,13 +34,69 @@
   <si>
     <t>MATRIX</t>
   </si>
+  <si>
+    <t>BRANCH PREDICTION ACCURACY</t>
+  </si>
+  <si>
+    <t>BENCHS</t>
+  </si>
+  <si>
+    <t>ACCURACY</t>
+  </si>
+  <si>
+    <t>POST-SYN</t>
+  </si>
+  <si>
+    <t>POST-P&amp;R</t>
+  </si>
+  <si>
+    <t>POWER</t>
+  </si>
+  <si>
+    <t>AREA</t>
+  </si>
+  <si>
+    <t>CELLS</t>
+  </si>
+  <si>
+    <t>V1</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t>EXE-TIME</t>
+  </si>
+  <si>
+    <t>PPA - RESULTS</t>
+  </si>
+  <si>
+    <t>TMIN</t>
+  </si>
+  <si>
+    <t>SYN-P&amp;R VARs - V1</t>
+  </si>
+  <si>
+    <t>SYN-P&amp;R VARs - V2</t>
+  </si>
+  <si>
+    <t>V1 - V2 VARIATIONS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -56,10 +112,86 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -68,8 +200,32 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -233,6 +389,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5D27-46F8-AE44-24E74031B89F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -261,6 +422,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5D27-46F8-AE44-24E74031B89F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -289,6 +455,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5D27-46F8-AE44-24E74031B89F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -344,7 +515,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$3:$C$3</c:f>
+              <c:f>Foglio1!$B$2:$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -361,7 +532,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$A$1:$C$1</c:f>
+              <c:f>Foglio1!$B$3:$D$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -663,7 +834,2648 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1560" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Synthesis VS Place &amp; Route Performances</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> Variations</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t>Basic Architecture</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1560" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="60"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="100"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$17:$C$17</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>#DIV/0! #DIV/0! #DIV/0!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$16:$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>POWER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AREA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TMIN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-C904-4192-AE4A-97BC6C668E46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:shape val="box"/>
+        <c:axId val="1221554240"/>
+        <c:axId val="1221553824"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1221554240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>PERFORMANCE PARAMETERS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221553824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1221553824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>VARIATION</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> PERCENTAGE</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t> %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221554240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1300" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1560" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Synthesis VS Place &amp; Route Performances</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> Variations</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t>Extended Architecture</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1560" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="60"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="100"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$A$20:$C$20</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>#DIV/0!</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>#DIV/0!</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>#DIV/0!</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-39B5-4BB7-AEB8-C85B6134016E}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$16:$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>POWER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AREA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TMIN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-39B5-4BB7-AEB8-C85B6134016E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:shape val="box"/>
+        <c:axId val="1221554240"/>
+        <c:axId val="1221553824"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1221554240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>PERFORMANCE PARAMETERS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221553824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1221553824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>VARIATION</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> PERCENTAGE</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t> %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221554240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1300" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1560" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Extended</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> VS Basic Architecture</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="it-IT"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Post</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> - Synthesis Performances Variations</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1560" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="60"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="100"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4A95-4F04-92FF-C418E3A13E91}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$24:$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>POWER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AREA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TMIN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CELLS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EXE-TIME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4A95-4F04-92FF-C418E3A13E91}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:shape val="box"/>
+        <c:axId val="1221554240"/>
+        <c:axId val="1221553824"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1221554240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>PERFORMANCE PARAMETERS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221553824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1221553824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>VARIATION</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> PERCENTAGE</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t> %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221554240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1300" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1560" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Extended</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> VS Basic Architecture</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t/>
+            </a:r>
+            <a:br>
+              <a:rPr lang="it-IT"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Post</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> - P&amp;R Performances Variations</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1560" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="60"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="100"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-7744-45B4-B6D8-80F1840B32C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-7744-45B4-B6D8-80F1840B32C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7744-45B4-B6D8-80F1840B32C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7744-45B4-B6D8-80F1840B32C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7744-45B4-B6D8-80F1840B32C3}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$B$24:$F$24</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>POWER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AREA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TMIN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CELLS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EXE-TIME</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$B$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.272727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-7744-45B4-B6D8-80F1840B32C3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:shape val="box"/>
+        <c:axId val="1221554240"/>
+        <c:axId val="1221553824"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1221554240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>PERFORMANCE PARAMETERS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221553824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1221553824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>VARIATION</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT" baseline="0"/>
+                  <a:t> PERCENTAGE</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t> %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221554240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1300" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
   <a:schemeClr val="accent6"/>
   <a:schemeClr val="accent5"/>
@@ -1254,20 +4066,2236 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="288">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="288">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="288">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="288">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>371474</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>542924</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133349</xdr:rowOff>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28574</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1281,6 +6309,134 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Grafico 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafico 7"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Grafico 8"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1552,38 +6708,358 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J64" sqref="J64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="4"/>
+      <c r="B1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4">
         <v>98.45</v>
       </c>
-      <c r="B1">
+      <c r="C3" s="4">
         <v>56.17</v>
       </c>
-      <c r="C1">
+      <c r="D3" s="4">
         <v>97.5</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="4">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="e">
+        <f xml:space="preserve"> (B7 - B8)/B7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B17" s="1" t="e">
+        <f t="shared" ref="B17:D17" si="0" xml:space="preserve"> (C7 - C8)/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C17" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D17" s="1" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="e">
+        <f xml:space="preserve"> (B10 - B11)/B10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B20" s="1" t="e">
+        <f t="shared" ref="B20:D20" si="1" xml:space="preserve"> (C10 - C11)/C10</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C20" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D20" s="1" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="e">
+        <f xml:space="preserve"> (B7 - B10)/B7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C25" s="1" t="e">
+        <f t="shared" ref="C25:E26" si="2" xml:space="preserve"> (C7 - C10)/C7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D25" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E25" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F25" s="1">
+        <f xml:space="preserve"> (F7 - F10)/F7</f>
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="e">
+        <f xml:space="preserve"> (B8 - B11)/B8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C26" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D26" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E26" s="1" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.272727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G27" s="12"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="12"/>
+    </row>
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
+      <c r="J64" s="12"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A18:D18"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Lab3/file/sample_plot.xlsx
+++ b/Lab3/file/sample_plot.xlsx
@@ -1,23 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Documents\GitHub\Laboratori-ISA\Lab3\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46212D8-0FD8-4529-A6EE-2249AE41555D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -86,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,32 +209,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -280,7 +290,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -495,7 +504,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -598,7 +606,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -710,7 +717,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -855,7 +861,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1560" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1560" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -866,11 +872,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Synthesis VS Place &amp; Route Performances</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> Variations</a:t>
+              <a:t>Synthesis VS Place &amp; Route Performances Variations</a:t>
             </a:r>
           </a:p>
           <a:p>
@@ -878,14 +880,12 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
+              <a:rPr lang="it-IT"/>
               <a:t>Basic Architecture</a:t>
             </a:r>
-            <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -899,7 +899,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1560" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1560" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -968,11 +968,20 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Foglio1!$A$17:$C$17</c:f>
+              <c:f>Foglio1!$A$17:$D$17</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>#DIV/0! #DIV/0! #DIV/0!</c:v>
+                  <c:v>#DIV/0!</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.24398143</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.09704641</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.28148508</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1000,6 +1009,716 @@
               <a:sp3d contourW="9525">
                 <a:contourClr>
                   <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="it-IT"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Foglio1!$A$16:$D$16</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>POWER</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>AREA</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>TMIN</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CELLS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Foglio1!$A$17:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2439814301806509</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.097046413502099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.281485080121758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-CB4A-40AA-A276-F535733A993E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:shape val="box"/>
+        <c:axId val="1221554240"/>
+        <c:axId val="1221553824"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1221554240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>PERFORMANCE PARAMETERS</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="sng" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221553824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1221553824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1300" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="dk1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="it-IT"/>
+                  <a:t>VARIATION PERCENTAGE %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1300" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="dk1"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="it-IT"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1300" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1221554240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1300" u="sng" baseline="0">
+          <a:solidFill>
+            <a:schemeClr val="dk1"/>
+          </a:solidFill>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1560" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Synthesis VS Place &amp; Route Performances</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t> Variations</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" baseline="0"/>
+              <a:t>Extended Architecture</a:t>
+            </a:r>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1560" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="0"/>
+      <c:rotY val="0"/>
+      <c:depthPercent val="60"/>
+      <c:rAngAx val="0"/>
+      <c:perspective val="100"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
                     <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:contourClr>
@@ -1042,7 +1761,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1062,9 +1780,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$16:$C$16</c:f>
+              <c:f>Foglio1!$A$19:$D$19</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>POWER</c:v>
                 </c:pt>
@@ -1074,21 +1792,36 @@
                 <c:pt idx="2">
                   <c:v>TMIN</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>CELLS</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Foglio1!$A$20:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1878199321691252</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.483606557377044</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>14.322456318708415</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-C904-4192-AE4A-97BC6C668E46}"/>
+              <c16:uniqueId val="{00000003-0D60-4634-B736-ECEC69D0D6F6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1136,7 +1869,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1256,7 +1988,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1380,7 +2111,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1412,26 +2143,27 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>Synthesis VS Place &amp; Route Performances</a:t>
+              <a:t>Extended</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> Variations</a:t>
+              <a:t> VS Basic Architecture</a:t>
             </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
+            <a:br>
+              <a:rPr lang="it-IT"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t>Post</a:t>
+            </a:r>
             <a:r>
               <a:rPr lang="it-IT" baseline="0"/>
-              <a:t>Extended Architecture</a:t>
+              <a:t> - Synthesis Performances Variations</a:t>
             </a:r>
             <a:endParaRPr lang="it-IT"/>
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1512,23 +2244,6 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$A$20:$C$20</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>#DIV/0!</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>#DIV/0!</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>#DIV/0!</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:dPt>
             <c:idx val="0"/>
@@ -1559,7 +2274,145 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-39B5-4BB7-AEB8-C85B6134016E}"/>
+                <c16:uniqueId val="{00000001-4A95-4F04-92FF-C418E3A13E91}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-1B8A-4858-8B23-8283B9E5BA14}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1B8A-4858-8B23-8283B9E5BA14}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-1B8A-4858-8B23-8283B9E5BA14}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-1B8A-4858-8B23-8283B9E5BA14}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -1599,7 +2452,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1619,9 +2471,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$A$16:$C$16</c:f>
+              <c:f>Foglio1!$B$24:$F$24</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>POWER</c:v>
                 </c:pt>
@@ -1631,21 +2483,42 @@
                 <c:pt idx="2">
                   <c:v>TMIN</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>CELLS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>EXE-TIME</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>Foglio1!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.158735961718675E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.9535864978902886</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3107953295348502E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>27.272727272727273</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-39B5-4BB7-AEB8-C85B6134016E}"/>
+              <c16:uniqueId val="{00000002-4A95-4F04-92FF-C418E3A13E91}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1693,7 +2566,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1813,7 +2685,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1937,691 +2808,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1560" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Extended</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> VS Basic Architecture</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t/>
-            </a:r>
-            <a:br>
-              <a:rPr lang="it-IT"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t>Post</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="it-IT" baseline="0"/>
-              <a:t> - Synthesis Performances Variations</a:t>
-            </a:r>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1560" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:view3D>
-      <c:rotX val="0"/>
-      <c:rotY val="0"/>
-      <c:depthPercent val="60"/>
-      <c:rAngAx val="0"/>
-      <c:perspective val="100"/>
-    </c:view3D>
-    <c:floor>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:solidFill>
-          <a:schemeClr val="lt1">
-            <a:lumMod val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:floor>
-    <c:sideWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:sideWall>
-    <c:backWall>
-      <c:thickness val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
-      </c:spPr>
-    </c:backWall>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:alpha val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-4A95-4F04-92FF-C418E3A13E91}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:alpha val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:alpha val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent4">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:alpha val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent6">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                  <a:alpha val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                <a:solidFill>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-              <a:sp3d contourW="9525">
-                <a:contourClr>
-                  <a:schemeClr val="accent5">
-                    <a:lumMod val="60000"/>
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
-                </a:contourClr>
-              </a:sp3d>
-            </c:spPr>
-          </c:dPt>
-          <c:dLbls>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="it-IT"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525">
-                      <a:solidFill>
-                        <a:schemeClr val="dk1">
-                          <a:lumMod val="50000"/>
-                          <a:lumOff val="50000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>Foglio1!$B$24:$F$24</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>POWER</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>AREA</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>TMIN</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>CELLS</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>EXE-TIME</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Foglio1!$B$25:$F$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.27272727272727271</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4A95-4F04-92FF-C418E3A13E91}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="65"/>
-        <c:shape val="box"/>
-        <c:axId val="1221554240"/>
-        <c:axId val="1221553824"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="1221554240"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>PERFORMANCE PARAMETERS</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="dk1">
-                <a:lumMod val="75000"/>
-                <a:lumOff val="25000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1221553824"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1221553824"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="dk1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="dk1"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>VARIATION</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" baseline="0"/>
-                  <a:t> PERCENTAGE</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t> %</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1"/>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="it-IT"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="dk1"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1221554240"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:gradFill flip="none" rotWithShape="1">
-      <a:gsLst>
-        <a:gs pos="0">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="39000">
-          <a:schemeClr val="lt1"/>
-        </a:gs>
-        <a:gs pos="100000">
-          <a:schemeClr val="lt1">
-            <a:lumMod val="75000"/>
-          </a:schemeClr>
-        </a:gs>
-      </a:gsLst>
-      <a:path path="circle">
-        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-      </a:path>
-      <a:tileRect/>
-    </a:gradFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="25000"/>
-          <a:lumOff val="75000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1300" baseline="0">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -2660,10 +2846,6 @@
               <a:rPr lang="it-IT" baseline="0"/>
               <a:t> VS Basic Architecture</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t/>
-            </a:r>
             <a:br>
               <a:rPr lang="it-IT"/>
             </a:br>
@@ -2679,7 +2861,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2968,7 +3149,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3016,19 +3196,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.5263157894736934</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>0.10017922329009138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>22.688039457459929</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>5.3130728156629385E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.272727</c:v>
+                  <c:v>27.272727272727273</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3083,7 +3263,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3203,7 +3382,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6299,7 +6477,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1"/>
+        <xdr:cNvPr id="2" name="Grafico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6317,19 +6501,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
+      <xdr:colOff>552451</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
+      <xdr:colOff>514351</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Grafico 2"/>
+        <xdr:cNvPr id="3" name="Grafico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6349,19 +6539,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>60</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Grafico 6"/>
+        <xdr:cNvPr id="7" name="Grafico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6393,7 +6589,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Grafico 7"/>
+        <xdr:cNvPr id="8" name="Grafico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6425,7 +6627,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Grafico 8"/>
+        <xdr:cNvPr id="9" name="Grafico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6707,11 +6915,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J64" sqref="J64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6723,68 +6931,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="4"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>98.45</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>56.17</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="2">
         <v>97.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6796,15 +7004,15 @@
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>294197.8</v>
       </c>
       <c r="D7" s="1">
-        <v>0</v>
+        <v>4.74</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4">
+        <v>131737</v>
+      </c>
+      <c r="F7" s="2">
         <v>220</v>
       </c>
     </row>
@@ -6813,18 +7021,18 @@
         <v>7</v>
       </c>
       <c r="B8" s="1">
-        <v>0</v>
+        <v>36.659999999999997</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0</v>
+        <v>281712.09999999998</v>
+      </c>
+      <c r="D8" s="13">
+        <v>8.11</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4"/>
+        <v>112923</v>
+      </c>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -6836,7 +7044,7 @@
       <c r="C9" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -6854,15 +7062,15 @@
         <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>294320.2</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>4.88</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4">
+        <v>131807</v>
+      </c>
+      <c r="F10" s="2">
         <v>160</v>
       </c>
     </row>
@@ -6871,108 +7079,108 @@
         <v>7</v>
       </c>
       <c r="B11" s="1">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>281994.59999999998</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>6.27</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
-      </c>
-      <c r="F11" s="4"/>
+        <v>112929</v>
+      </c>
+      <c r="F11" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="e">
-        <f xml:space="preserve"> (B7 - B8)/B7</f>
+        <f xml:space="preserve"> -(B7 - B8)*100/B7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B17" s="1" t="e">
-        <f t="shared" ref="B17:D17" si="0" xml:space="preserve"> (C7 - C8)/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C17" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D17" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+      <c r="B17" s="1">
+        <f xml:space="preserve"> (C7 - C8)*100/C7</f>
+        <v>4.2439814301806509</v>
+      </c>
+      <c r="C17" s="1">
+        <f xml:space="preserve"> (D8 - D7)*100/D7</f>
+        <v>71.097046413502099</v>
+      </c>
+      <c r="D17" s="1">
+        <f xml:space="preserve"> (E7 - E8)*100/E7</f>
+        <v>14.281485080121758</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="e">
-        <f xml:space="preserve"> (B10 - B11)/B10</f>
+        <f xml:space="preserve"> -(B10 - B11)*100/B10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B20" s="1" t="e">
-        <f t="shared" ref="B20:D20" si="1" xml:space="preserve"> (C10 - C11)/C10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C20" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D20" s="1" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+      <c r="B20" s="1">
+        <f xml:space="preserve"> (C10 - C11)*100/C10</f>
+        <v>4.1878199321691252</v>
+      </c>
+      <c r="C20" s="1">
+        <f xml:space="preserve"> -(D10 - D11)*100/D10</f>
+        <v>28.483606557377044</v>
+      </c>
+      <c r="D20" s="1">
+        <f xml:space="preserve"> (E10 - E11)*100/E10</f>
+        <v>14.322456318708415</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="11"/>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
@@ -6982,7 +7190,7 @@
       <c r="C24" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="6" t="s">
         <v>15</v>
       </c>
       <c r="E24" s="1" t="s">
@@ -7000,55 +7208,56 @@
         <f xml:space="preserve"> (B7 - B10)/B7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C25" s="1" t="e">
-        <f t="shared" ref="C25:E26" si="2" xml:space="preserve"> (C7 - C10)/C7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E25" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="C25" s="1">
+        <f xml:space="preserve"> (C10 - C7)*100/C10</f>
+        <v>4.158735961718675E-2</v>
+      </c>
+      <c r="D25" s="1">
+        <f xml:space="preserve"> -(D7 - D10)*100/D7</f>
+        <v>2.9535864978902886</v>
+      </c>
+      <c r="E25" s="1">
+        <f xml:space="preserve"> (E10 - E7)*100/E10</f>
+        <v>5.3107953295348502E-2</v>
       </c>
       <c r="F25" s="1">
-        <f xml:space="preserve"> (F7 - F10)/F7</f>
-        <v>0.27272727272727271</v>
+        <f xml:space="preserve"> (F7 - F10)*100/F7</f>
+        <v>27.272727272727273</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="1" t="e">
-        <f xml:space="preserve"> (B8 - B11)/B8</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C26" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D26" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E26" s="1" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
+      <c r="B26" s="1">
+        <f xml:space="preserve"> (B11 - B8)*100/B11</f>
+        <v>3.5263157894736934</v>
+      </c>
+      <c r="C26" s="1">
+        <f xml:space="preserve"> (C11 - C8)*100/C11</f>
+        <v>0.10017922329009138</v>
+      </c>
+      <c r="D26" s="1">
+        <f xml:space="preserve"> (D8 - D11)*100/D8</f>
+        <v>22.688039457459929</v>
+      </c>
+      <c r="E26" s="1">
+        <f xml:space="preserve"> (E11 - E8)*100/E11</f>
+        <v>5.3130728156629385E-3</v>
       </c>
       <c r="F26" s="1">
-        <v>0.272727</v>
+        <f xml:space="preserve"> (F7 - F10)*100/F7</f>
+        <v>27.272727272727273</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="12"/>
+      <c r="G27" s="7"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="12"/>
+      <c r="E29" s="7"/>
     </row>
     <row r="64" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J64" s="12"/>
+      <c r="J64" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Lab3/file/sample_plot.xlsx
+++ b/Lab3/file/sample_plot.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Davide\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Documents\GitHub\Laboratori-ISA\Lab3\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46212D8-0FD8-4529-A6EE-2249AE41555D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -95,7 +94,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -209,33 +211,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -290,6 +293,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -504,6 +508,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -542,7 +547,7 @@
             <c:numRef>
               <c:f>Foglio1!$B$3:$D$3</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>98.45</c:v>
@@ -606,6 +611,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -635,7 +641,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
@@ -717,6 +723,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -743,7 +750,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -886,6 +893,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -975,13 +983,13 @@
                   <c:v>#DIV/0!</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.24398143</c:v>
+                  <c:v>-4.244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.09704641</c:v>
+                  <c:v>71.097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.28148508</c:v>
+                  <c:v>-14.281</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1014,6 +1022,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-64D3-4C5F-9E50-C85AF41BB4DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1042,6 +1055,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-64D3-4C5F-9E50-C85AF41BB4DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1070,6 +1088,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-64D3-4C5F-9E50-C85AF41BB4DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1101,6 +1124,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-64D3-4C5F-9E50-C85AF41BB4DE}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1136,6 +1164,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1177,19 +1206,19 @@
             <c:numRef>
               <c:f>Foglio1!$A$17:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.2439814301806509</c:v>
+                  <c:v>-4.2439814301806509</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>71.097046413502099</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.281485080121758</c:v>
+                  <c:v>-14.281485080121758</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1244,6 +1273,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1273,7 +1303,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
@@ -1355,6 +1385,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1381,7 +1412,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1529,6 +1560,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1637,6 +1669,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-9171-4336-97ED-4FB863739280}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1665,6 +1702,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-9171-4336-97ED-4FB863739280}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1693,6 +1735,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-9171-4336-97ED-4FB863739280}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1724,6 +1771,11 @@
                 </a:contourClr>
               </a:sp3d>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-9171-4336-97ED-4FB863739280}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1761,6 +1813,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1802,19 +1855,19 @@
             <c:numRef>
               <c:f>Foglio1!$A$20:$D$20</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1878199321691252</c:v>
+                  <c:v>-4.1878199321691252</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>28.483606557377044</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14.322456318708415</c:v>
+                  <c:v>-14.322456318708415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1869,6 +1922,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1898,7 +1952,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
@@ -1988,6 +2042,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2014,7 +2069,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2149,6 +2204,10 @@
               <a:rPr lang="it-IT" baseline="0"/>
               <a:t> VS Basic Architecture</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t/>
+            </a:r>
             <a:br>
               <a:rPr lang="it-IT"/>
             </a:br>
@@ -2164,6 +2223,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2452,6 +2512,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2496,22 +2557,22 @@
             <c:numRef>
               <c:f>Foglio1!$B$25:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.158735961718675E-2</c:v>
+                  <c:v>4.1604661897547596E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9535864978902886</c:v>
+                  <c:v>2.9535864978902884E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3107953295348502E-2</c:v>
+                  <c:v>5.3136172829197571E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.272727272727273</c:v>
+                  <c:v>-0.27272727272727271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2566,6 +2627,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2595,7 +2657,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
@@ -2685,6 +2747,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2711,7 +2774,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2846,6 +2909,10 @@
               <a:rPr lang="it-IT" baseline="0"/>
               <a:t> VS Basic Architecture</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t/>
+            </a:r>
             <a:br>
               <a:rPr lang="it-IT"/>
             </a:br>
@@ -2861,6 +2928,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3149,6 +3217,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3193,7 +3262,7 @@
             <c:numRef>
               <c:f>Foglio1!$B$26:$F$26</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>3.5263157894736934</c:v>
@@ -3202,13 +3271,13 @@
                   <c:v>0.10017922329009138</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.688039457459929</c:v>
+                  <c:v>-29.346092503987244</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>5.3130728156629385E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.272727272727273</c:v>
+                  <c:v>-0.27272727272727271</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3263,6 +3332,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3292,7 +3362,7 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
@@ -3382,6 +3452,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3408,7 +3479,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6464,8 +6535,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>114299</xdr:rowOff>
     </xdr:from>
@@ -6508,8 +6579,8 @@
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>514351</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6539,15 +6610,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6915,222 +6986,286 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
-      <c r="B1" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="3">
         <v>98.45</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="3">
         <v>56.17</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="3">
         <v>97.5</v>
       </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="4"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="10">
         <v>0</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="10">
         <v>294197.8</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="10">
         <v>4.74</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="10">
         <v>131737</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>220</v>
       </c>
+      <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="10">
         <v>36.659999999999997</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="10">
         <v>281712.09999999998</v>
       </c>
-      <c r="D8" s="13">
+      <c r="D8" s="10">
         <v>8.11</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="10">
         <v>112923</v>
       </c>
-      <c r="F8" s="2"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="10">
         <v>0</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="10">
         <v>294320.2</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D10" s="10">
         <v>4.88</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" s="10">
         <v>131807</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>160</v>
       </c>
+      <c r="G10" s="2"/>
+      <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="10">
         <v>38</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="10">
         <v>281994.59999999998</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D11" s="10">
         <v>6.27</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" s="10">
         <v>112929</v>
       </c>
-      <c r="F11" s="2"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="D16" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="e">
+      <c r="A17" s="10" t="e">
         <f xml:space="preserve"> -(B7 - B8)*100/B7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B17" s="1">
-        <f xml:space="preserve"> (C7 - C8)*100/C7</f>
-        <v>4.2439814301806509</v>
-      </c>
-      <c r="C17" s="1">
-        <f xml:space="preserve"> (D8 - D7)*100/D7</f>
+      <c r="B17" s="10">
+        <f t="shared" ref="B17:D17" si="0" xml:space="preserve"> -(C7 - C8)*100/C7</f>
+        <v>-4.2439814301806509</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" si="0"/>
         <v>71.097046413502099</v>
       </c>
-      <c r="D17" s="1">
-        <f xml:space="preserve"> (E7 - E8)*100/E7</f>
-        <v>14.281485080121758</v>
-      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="0"/>
+        <v>-14.281485080121758</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
@@ -7139,125 +7274,162 @@
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="D19" s="8" t="s">
         <v>10</v>
       </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="e">
+      <c r="A20" s="10" t="e">
         <f xml:space="preserve"> -(B10 - B11)*100/B10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="B20" s="1">
-        <f xml:space="preserve"> (C10 - C11)*100/C10</f>
-        <v>4.1878199321691252</v>
-      </c>
-      <c r="C20" s="1">
-        <f xml:space="preserve"> -(D10 - D11)*100/D10</f>
+      <c r="B20" s="10">
+        <f t="shared" ref="B20:D20" si="1" xml:space="preserve"> -(C10 - C11)*100/C10</f>
+        <v>-4.1878199321691252</v>
+      </c>
+      <c r="C20" s="10">
+        <f t="shared" si="1"/>
         <v>28.483606557377044</v>
       </c>
-      <c r="D20" s="1">
-        <f xml:space="preserve"> (E10 - E11)*100/E10</f>
-        <v>14.322456318708415</v>
-      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="1"/>
+        <v>-14.322456318708415</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="10"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="1" t="e">
-        <f xml:space="preserve"> (B7 - B10)/B7</f>
+      <c r="B25" s="10" t="e">
+        <f xml:space="preserve"> (B10 - B7)/B7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C25" s="1">
-        <f xml:space="preserve"> (C10 - C7)*100/C10</f>
-        <v>4.158735961718675E-2</v>
-      </c>
-      <c r="D25" s="1">
-        <f xml:space="preserve"> -(D7 - D10)*100/D7</f>
-        <v>2.9535864978902886</v>
-      </c>
-      <c r="E25" s="1">
-        <f xml:space="preserve"> (E10 - E7)*100/E10</f>
-        <v>5.3107953295348502E-2</v>
-      </c>
-      <c r="F25" s="1">
-        <f xml:space="preserve"> (F7 - F10)*100/F7</f>
-        <v>27.272727272727273</v>
-      </c>
+      <c r="C25" s="10">
+        <f t="shared" ref="C25:F26" si="2" xml:space="preserve"> (C10 - C7)/C7</f>
+        <v>4.1604661897547596E-4</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="2"/>
+        <v>2.9535864978902884E-2</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="2"/>
+        <v>5.3136172829197571E-4</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="2"/>
+        <v>-0.27272727272727271</v>
+      </c>
+      <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26" s="10">
         <f xml:space="preserve"> (B11 - B8)*100/B11</f>
         <v>3.5263157894736934</v>
       </c>
-      <c r="C26" s="1">
-        <f xml:space="preserve"> (C11 - C8)*100/C11</f>
+      <c r="C26" s="10">
+        <f t="shared" ref="C26:F26" si="3" xml:space="preserve"> (C11 - C8)*100/C11</f>
         <v>0.10017922329009138</v>
       </c>
-      <c r="D26" s="1">
-        <f xml:space="preserve"> (D8 - D11)*100/D8</f>
-        <v>22.688039457459929</v>
-      </c>
-      <c r="E26" s="1">
-        <f xml:space="preserve"> (E11 - E8)*100/E11</f>
+      <c r="D26" s="10">
+        <f t="shared" si="3"/>
+        <v>-29.346092503987244</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="3"/>
         <v>5.3130728156629385E-3</v>
       </c>
-      <c r="F26" s="1">
-        <f xml:space="preserve"> (F7 - F10)*100/F7</f>
-        <v>27.272727272727273</v>
-      </c>
+      <c r="F26" s="10">
+        <f xml:space="preserve"> F25</f>
+        <v>-0.27272727272727271</v>
+      </c>
+      <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G27" s="7"/>
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="14"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E29" s="7"/>
+      <c r="E29" s="1"/>
     </row>
     <row r="64" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J64" s="7"/>
+      <c r="J64" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/Lab3/file/sample_plot.xlsx
+++ b/Lab3/file/sample_plot.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Documents\GitHub\Laboratori-ISA\Lab3\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PoliTo\Magistrale\II anno\Integrated system architecture\Laboratori-ISA\Lab3\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04133E40-B0B6-42D4-AD17-D301C698731A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,6 +26,7 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -94,7 +96,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -218,27 +220,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -293,7 +295,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -508,7 +509,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -611,7 +611,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -723,7 +722,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -893,7 +891,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -980,16 +977,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>#DIV/0!</c:v>
+                  <c:v>13,162</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4.244</c:v>
+                  <c:v>-4,244</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71.097</c:v>
+                  <c:v>71,097</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-14.281</c:v>
+                  <c:v>-14,281</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1164,7 +1161,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1209,7 +1205,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>13.162118780096295</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-4.2439814301806509</c:v>
@@ -1273,7 +1269,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1385,7 +1380,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1560,7 +1554,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1813,7 +1806,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1858,7 +1850,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>17.25499876573685</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>-4.1878199321691252</c:v>
@@ -1922,7 +1914,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2042,7 +2033,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2204,10 +2194,6 @@
               <a:rPr lang="it-IT" baseline="0"/>
               <a:t> VS Basic Architecture</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t/>
-            </a:r>
             <a:br>
               <a:rPr lang="it-IT"/>
             </a:br>
@@ -2223,7 +2209,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2512,7 +2497,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2560,7 +2544,7 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>3.7041610075319343E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>4.1604661897547596E-4</c:v>
@@ -2627,7 +2611,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2747,7 +2730,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2909,10 +2891,6 @@
               <a:rPr lang="it-IT" baseline="0"/>
               <a:t> VS Basic Architecture</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="it-IT"/>
-              <a:t/>
-            </a:r>
             <a:br>
               <a:rPr lang="it-IT"/>
             </a:br>
@@ -2928,7 +2906,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3217,7 +3194,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3332,7 +3308,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3452,7 +3427,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6986,35 +6960,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="7.85546875" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.109375" customWidth="1"/>
+    <col min="4" max="4" width="7.88671875" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -7031,7 +7005,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -7048,7 +7022,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -7057,52 +7031,52 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="4"/>
       <c r="G5" s="2"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="2"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="10">
-        <v>0</v>
-      </c>
-      <c r="C7" s="10">
+      <c r="B7" s="7">
+        <v>32.396000000000001</v>
+      </c>
+      <c r="C7" s="7">
         <v>294197.8</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="7">
         <v>4.74</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="7">
         <v>131737</v>
       </c>
       <c r="F7" s="3">
@@ -7110,60 +7084,60 @@
       </c>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="7">
         <v>36.659999999999997</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="7">
         <v>281712.09999999998</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D8" s="7">
         <v>8.11</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="7">
         <v>112923</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="10">
+      <c r="B10" s="7">
+        <v>32.408000000000001</v>
+      </c>
+      <c r="C10" s="7">
         <v>294320.2</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="7">
         <v>4.88</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="7">
         <v>131807</v>
       </c>
       <c r="F10" s="3">
@@ -7172,26 +7146,26 @@
       <c r="G10" s="2"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="10" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="10">
+      <c r="B11" s="7">
         <v>38</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="7">
         <v>281994.59999999998</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D11" s="7">
         <v>6.27</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="7">
         <v>112929</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -7200,7 +7174,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -7209,7 +7183,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -7218,48 +7192,48 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="8" t="s">
+      <c r="D16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10" t="e">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
         <f xml:space="preserve"> -(B7 - B8)*100/B7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B17" s="10">
+        <v>13.162118780096295</v>
+      </c>
+      <c r="B17" s="7">
         <f t="shared" ref="B17:D17" si="0" xml:space="preserve"> -(C7 - C8)*100/C7</f>
         <v>-4.2439814301806509</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="7">
         <f t="shared" si="0"/>
         <v>71.097046413502099</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D17" s="7">
         <f t="shared" si="0"/>
         <v>-14.281485080121758</v>
       </c>
@@ -7267,48 +7241,48 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="5" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="e">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
         <f xml:space="preserve"> -(B10 - B11)*100/B10</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="B20" s="10">
+        <v>17.25499876573685</v>
+      </c>
+      <c r="B20" s="7">
         <f t="shared" ref="B20:D20" si="1" xml:space="preserve"> -(C10 - C11)*100/C10</f>
         <v>-4.1878199321691252</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="7">
         <f t="shared" si="1"/>
         <v>28.483606557377044</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D20" s="7">
         <f t="shared" si="1"/>
         <v>-14.322456318708415</v>
       </c>
@@ -7316,7 +7290,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -7325,7 +7299,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -7334,101 +7308,101 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="5" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="13"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="10" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="C24" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="10" t="s">
+      <c r="F24" s="7" t="s">
         <v>13</v>
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="10" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="10" t="e">
+      <c r="B25" s="7">
         <f xml:space="preserve"> (B10 - B7)/B7</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C25" s="10">
-        <f t="shared" ref="C25:F26" si="2" xml:space="preserve"> (C10 - C7)/C7</f>
+        <v>3.7041610075319343E-4</v>
+      </c>
+      <c r="C25" s="7">
+        <f t="shared" ref="C25:F25" si="2" xml:space="preserve"> (C10 - C7)/C7</f>
         <v>4.1604661897547596E-4</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D25" s="7">
         <f t="shared" si="2"/>
         <v>2.9535864978902884E-2</v>
       </c>
-      <c r="E25" s="10">
+      <c r="E25" s="7">
         <f t="shared" si="2"/>
         <v>5.3136172829197571E-4</v>
       </c>
-      <c r="F25" s="10">
+      <c r="F25" s="7">
         <f t="shared" si="2"/>
         <v>-0.27272727272727271</v>
       </c>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="10">
+      <c r="B26" s="7">
         <f xml:space="preserve"> (B11 - B8)*100/B11</f>
         <v>3.5263157894736934</v>
       </c>
-      <c r="C26" s="10">
-        <f t="shared" ref="C26:F26" si="3" xml:space="preserve"> (C11 - C8)*100/C11</f>
+      <c r="C26" s="7">
+        <f t="shared" ref="C26:E26" si="3" xml:space="preserve"> (C11 - C8)*100/C11</f>
         <v>0.10017922329009138</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D26" s="7">
         <f t="shared" si="3"/>
         <v>-29.346092503987244</v>
       </c>
-      <c r="E26" s="10">
+      <c r="E26" s="7">
         <f t="shared" si="3"/>
         <v>5.3130728156629385E-3</v>
       </c>
-      <c r="F26" s="10">
+      <c r="F26" s="7">
         <f xml:space="preserve"> F25</f>
         <v>-0.27272727272727271</v>
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
-      <c r="G27" s="14"/>
+      <c r="G27" s="9"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E29" s="1"/>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.3">
       <c r="J64" s="1"/>
     </row>
   </sheetData>

--- a/Lab3/file/sample_plot.xlsx
+++ b/Lab3/file/sample_plot.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PoliTo\Magistrale\II anno\Integrated system architecture\Laboratori-ISA\Lab3\file\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Documents\GitHub\Laboratori-ISA\Lab3\file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04133E40-B0B6-42D4-AD17-D301C698731A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +95,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -213,33 +212,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -295,6 +298,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -509,6 +513,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -547,7 +552,7 @@
             <c:numRef>
               <c:f>Foglio1!$B$3:$D$3</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>98.45</c:v>
@@ -611,6 +616,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -722,6 +728,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -748,7 +755,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -866,7 +873,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1560" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1560" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -891,6 +898,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -904,7 +912,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1560" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1560" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
               </a:solidFill>
@@ -977,16 +985,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>13,162</c:v>
+                  <c:v>13.16</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-4,244</c:v>
+                  <c:v>-4.24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>71,097</c:v>
+                  <c:v>71.10</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-14,281</c:v>
+                  <c:v>-14.28</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1140,7 +1148,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1300" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1"/>
                     </a:solidFill>
@@ -1161,6 +1169,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1202,7 +1211,7 @@
             <c:numRef>
               <c:f>Foglio1!$A$17:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>13.162118780096295</c:v>
@@ -1253,7 +1262,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1300" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1"/>
                     </a:solidFill>
@@ -1269,6 +1278,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1282,7 +1292,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1300" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
@@ -1317,7 +1327,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1300" b="0" i="0" u="sng" strike="noStrike" kern="1200" cap="all" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -1364,7 +1374,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1300" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="dk1"/>
                     </a:solidFill>
@@ -1380,6 +1390,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1393,7 +1404,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1300" b="1" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1300" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="dk1"/>
                   </a:solidFill>
@@ -1406,7 +1417,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1422,7 +1433,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1300" b="0" i="0" u="sng" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1300" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="dk1"/>
                 </a:solidFill>
@@ -1486,7 +1497,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr sz="1300" u="sng" baseline="0">
+        <a:defRPr sz="1300" u="none" baseline="0">
           <a:solidFill>
             <a:schemeClr val="dk1"/>
           </a:solidFill>
@@ -1554,6 +1565,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1806,6 +1818,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1847,7 +1860,7 @@
             <c:numRef>
               <c:f>Foglio1!$A$20:$D$20</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>17.25499876573685</c:v>
@@ -1914,6 +1927,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2033,6 +2047,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2059,7 +2074,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2194,6 +2209,10 @@
               <a:rPr lang="it-IT" baseline="0"/>
               <a:t> VS Basic Architecture</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t/>
+            </a:r>
             <a:br>
               <a:rPr lang="it-IT"/>
             </a:br>
@@ -2209,6 +2228,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2497,6 +2517,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2541,22 +2562,22 @@
             <c:numRef>
               <c:f>Foglio1!$B$25:$F$25</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.7041610075319343E-4</c:v>
+                  <c:v>0.37041610075319342</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4.1604661897547596E-4</c:v>
+                  <c:v>0.41604661897547596</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9535864978902884E-2</c:v>
+                  <c:v>29.535864978902886</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3136172829197571E-4</c:v>
+                  <c:v>0.5313617282919757</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.27272727272727271</c:v>
+                  <c:v>-272.72727272727275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2611,6 +2632,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2725,11 +2747,20 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="it-IT"/>
-                  <a:t> %</a:t>
+                  <a:t> </a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="it-IT">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>‰</a:t>
+                </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2756,7 +2787,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2891,6 +2922,10 @@
               <a:rPr lang="it-IT" baseline="0"/>
               <a:t> VS Basic Architecture</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="it-IT"/>
+              <a:t/>
+            </a:r>
             <a:br>
               <a:rPr lang="it-IT"/>
             </a:br>
@@ -2906,6 +2941,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3194,6 +3230,7 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3238,22 +3275,22 @@
             <c:numRef>
               <c:f>Foglio1!$B$26:$F$26</c:f>
               <c:numCache>
-                <c:formatCode>0.000</c:formatCode>
+                <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>3.5263157894736934</c:v>
+                  <c:v>36.552100381887712</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10017922329009138</c:v>
+                  <c:v>1.0027968269733534</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-29.346092503987244</c:v>
+                  <c:v>-226.88039457459925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.3130728156629385E-3</c:v>
+                  <c:v>5.3133551180893177E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.27272727272727271</c:v>
+                  <c:v>-272.72727272727275</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3308,6 +3345,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3413,20 +3451,16 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t>VARIATION</a:t>
+                  <a:rPr lang="it-IT" sz="1300" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>VARIATION PERCENTAGE ‰</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT" baseline="0"/>
-                  <a:t> PERCENTAGE</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="it-IT"/>
-                  <a:t> %</a:t>
-                </a:r>
+                <a:endParaRPr lang="it-IT"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3453,7 +3487,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -6960,35 +6994,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="3" max="3" width="18.109375" customWidth="1"/>
-    <col min="4" max="4" width="7.88671875" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
@@ -7001,11 +7035,11 @@
       <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
@@ -7018,391 +7052,395 @@
       <c r="D3" s="3">
         <v>97.5</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="10" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="2"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="5"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" s="5"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="11">
         <v>32.396000000000001</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="11">
         <v>294197.8</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="11">
         <v>4.74</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="11">
         <v>131737</v>
       </c>
       <c r="F7" s="3">
         <v>220</v>
       </c>
-      <c r="G7" s="2"/>
+      <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="11">
         <v>36.659999999999997</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="11">
         <v>281712.09999999998</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="11">
         <v>8.11</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="11">
         <v>112923</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="2"/>
+      <c r="F8" s="3">
+        <v>220</v>
+      </c>
+      <c r="G8" s="5"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="2"/>
+      <c r="G9" s="5"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="11">
         <v>32.408000000000001</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="11">
         <v>294320.2</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="11">
         <v>4.88</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="11">
         <v>131807</v>
       </c>
       <c r="F10" s="3">
         <v>160</v>
       </c>
-      <c r="G10" s="2"/>
+      <c r="G10" s="5"/>
       <c r="I10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="11">
         <v>38</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="11">
         <v>281994.59999999998</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="11">
         <v>6.27</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="11">
         <v>112929</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="2"/>
+      <c r="F11" s="16">
+        <v>160</v>
+      </c>
+      <c r="G11" s="5"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="C16" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
         <f xml:space="preserve"> -(B7 - B8)*100/B7</f>
         <v>13.162118780096295</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="11">
         <f t="shared" ref="B17:D17" si="0" xml:space="preserve"> -(C7 - C8)*100/C7</f>
         <v>-4.2439814301806509</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="11">
         <f t="shared" si="0"/>
         <v>71.097046413502099</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="11">
         <f t="shared" si="0"/>
         <v>-14.281485080121758</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="13"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
         <f xml:space="preserve"> -(B10 - B11)*100/B10</f>
         <v>17.25499876573685</v>
       </c>
-      <c r="B20" s="7">
+      <c r="B20" s="11">
         <f t="shared" ref="B20:D20" si="1" xml:space="preserve"> -(C10 - C11)*100/C10</f>
         <v>-4.1878199321691252</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="11">
         <f t="shared" si="1"/>
         <v>28.483606557377044</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="11">
         <f t="shared" si="1"/>
         <v>-14.322456318708415</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="10" t="s">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="2"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="7" t="s">
+      <c r="C24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="8" t="s">
+      <c r="D24" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="2"/>
+      <c r="G24" s="5"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="7" t="s">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="7">
-        <f xml:space="preserve"> (B10 - B7)/B7</f>
-        <v>3.7041610075319343E-4</v>
-      </c>
-      <c r="C25" s="7">
-        <f t="shared" ref="C25:F25" si="2" xml:space="preserve"> (C10 - C7)/C7</f>
-        <v>4.1604661897547596E-4</v>
-      </c>
-      <c r="D25" s="7">
+      <c r="B25" s="11">
+        <f xml:space="preserve"> (B10 - B7)*1000/B7</f>
+        <v>0.37041610075319342</v>
+      </c>
+      <c r="C25" s="11">
+        <f t="shared" ref="C25:F26" si="2" xml:space="preserve"> (C10 - C7)*1000/C7</f>
+        <v>0.41604661897547596</v>
+      </c>
+      <c r="D25" s="11">
         <f t="shared" si="2"/>
-        <v>2.9535864978902884E-2</v>
-      </c>
-      <c r="E25" s="7">
+        <v>29.535864978902886</v>
+      </c>
+      <c r="E25" s="11">
         <f t="shared" si="2"/>
-        <v>5.3136172829197571E-4</v>
-      </c>
-      <c r="F25" s="7">
+        <v>0.5313617282919757</v>
+      </c>
+      <c r="F25" s="11">
         <f t="shared" si="2"/>
-        <v>-0.27272727272727271</v>
-      </c>
-      <c r="G25" s="2"/>
+        <v>-272.72727272727275</v>
+      </c>
+      <c r="G25" s="5"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="7" t="s">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="7">
-        <f xml:space="preserve"> (B11 - B8)*100/B11</f>
-        <v>3.5263157894736934</v>
-      </c>
-      <c r="C26" s="7">
-        <f t="shared" ref="C26:E26" si="3" xml:space="preserve"> (C11 - C8)*100/C11</f>
-        <v>0.10017922329009138</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="B26" s="11">
+        <f xml:space="preserve"> (B11 - B8)*1000/B8</f>
+        <v>36.552100381887712</v>
+      </c>
+      <c r="C26" s="11">
+        <f t="shared" ref="C26:E26" si="3" xml:space="preserve"> (C11 - C8)*1000/C8</f>
+        <v>1.0027968269733534</v>
+      </c>
+      <c r="D26" s="11">
         <f t="shared" si="3"/>
-        <v>-29.346092503987244</v>
-      </c>
-      <c r="E26" s="7">
+        <v>-226.88039457459925</v>
+      </c>
+      <c r="E26" s="11">
         <f t="shared" si="3"/>
-        <v>5.3130728156629385E-3</v>
-      </c>
-      <c r="F26" s="7">
-        <f xml:space="preserve"> F25</f>
-        <v>-0.27272727272727271</v>
-      </c>
-      <c r="G26" s="2"/>
+        <v>5.3133551180893177E-2</v>
+      </c>
+      <c r="F26" s="11">
+        <f t="shared" si="2"/>
+        <v>-272.72727272727275</v>
+      </c>
+      <c r="G26" s="5"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="9"/>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="15"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
     </row>
-    <row r="64" spans="10:10" x14ac:dyDescent="0.3">
+    <row r="64" spans="10:10" x14ac:dyDescent="0.25">
       <c r="J64" s="1"/>
     </row>
   </sheetData>

--- a/Lab3/file/sample_plot.xlsx
+++ b/Lab3/file/sample_plot.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="20">
   <si>
     <t>MIN-SEARCH</t>
   </si>
@@ -91,6 +91,9 @@
   <si>
     <t>V1 - V2 VARIATIONS</t>
   </si>
+  <si>
+    <t>ENERGY</t>
+  </si>
 </sst>
 </file>
 
@@ -124,7 +127,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -164,43 +167,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -223,25 +189,27 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2481,6 +2449,37 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -2537,9 +2536,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$24:$F$24</c:f>
+              <c:f>Foglio1!$B$24:$G$24</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>POWER</c:v>
                 </c:pt>
@@ -2555,15 +2554,18 @@
                 <c:pt idx="4">
                   <c:v>EXE-TIME</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>ENERGY</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$25:$F$25</c:f>
+              <c:f>Foglio1!$B$25:$G$25</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>0.37041610075319342</c:v>
                 </c:pt>
@@ -2578,6 +2580,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-272.72727272727275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-272.45787919945212</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3194,6 +3199,37 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:alpha val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d contourW="9525">
+                <a:contourClr>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:contourClr>
+              </a:sp3d>
+            </c:spPr>
+          </c:dPt>
           <c:dLbls>
             <c:spPr>
               <a:noFill/>
@@ -3250,9 +3286,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Foglio1!$B$24:$F$24</c:f>
+              <c:f>Foglio1!$B$24:$G$24</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>POWER</c:v>
                 </c:pt>
@@ -3268,15 +3304,18 @@
                 <c:pt idx="4">
                   <c:v>EXE-TIME</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>ENERGY</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Foglio1!$B$26:$F$26</c:f>
+              <c:f>Foglio1!$B$26:$G$26</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>36.552100381887712</c:v>
                 </c:pt>
@@ -3291,6 +3330,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-272.72727272727275</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-246.14392699499072</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6997,8 +7039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7013,11 +7055,11 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -7066,142 +7108,158 @@
       <c r="G4" s="5"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="5"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="5"/>
+      <c r="G6" s="14" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="4">
         <v>32.396000000000001</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="4">
         <v>294197.8</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="4">
         <v>4.74</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="4">
         <v>131737</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="4">
         <v>220</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="4">
+        <f xml:space="preserve"> B7*F7</f>
+        <v>7127.12</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="4">
         <v>36.659999999999997</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="4">
         <v>281712.09999999998</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="4">
         <v>8.11</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="4">
         <v>112923</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>220</v>
       </c>
-      <c r="G8" s="5"/>
+      <c r="G8" s="4">
+        <f xml:space="preserve"> B8*F8</f>
+        <v>8065.1999999999989</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="4" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="11">
+      <c r="B10" s="4">
         <v>32.408000000000001</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="4">
         <v>294320.2</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D10" s="4">
         <v>4.88</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E10" s="4">
         <v>131807</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>160</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="G10" s="4">
+        <f xml:space="preserve"> B10*F10</f>
+        <v>5185.2800000000007</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="4">
         <v>38</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="4">
         <v>281994.59999999998</v>
       </c>
-      <c r="D11" s="11">
+      <c r="D11" s="4">
         <v>6.27</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="4">
         <v>112929</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="11">
         <v>160</v>
       </c>
-      <c r="G11" s="5"/>
+      <c r="G11" s="4">
+        <f xml:space="preserve"> B11*F11</f>
+        <v>6080</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
@@ -7242,16 +7300,16 @@
       <c r="G15" s="5"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="5"/>
@@ -7259,19 +7317,19 @@
       <c r="G16" s="5"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="11">
+      <c r="A17" s="8">
         <f xml:space="preserve"> -(B7 - B8)*100/B7</f>
         <v>13.162118780096295</v>
       </c>
-      <c r="B17" s="11">
+      <c r="B17" s="8">
         <f t="shared" ref="B17:D17" si="0" xml:space="preserve"> -(C7 - C8)*100/C7</f>
         <v>-4.2439814301806509</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="8">
         <f t="shared" si="0"/>
         <v>71.097046413502099</v>
       </c>
-      <c r="D17" s="11">
+      <c r="D17" s="8">
         <f t="shared" si="0"/>
         <v>-14.281485080121758</v>
       </c>
@@ -7291,16 +7349,16 @@
       <c r="G18" s="5"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>10</v>
       </c>
       <c r="E19" s="5"/>
@@ -7308,19 +7366,19 @@
       <c r="G19" s="5"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="11">
+      <c r="A20" s="8">
         <f xml:space="preserve"> -(B10 - B11)*100/B10</f>
         <v>17.25499876573685</v>
       </c>
-      <c r="B20" s="11">
+      <c r="B20" s="8">
         <f t="shared" ref="B20:D20" si="1" xml:space="preserve"> -(C10 - C11)*100/C10</f>
         <v>-4.1878199321691252</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="8">
         <f t="shared" si="1"/>
         <v>28.483606557377044</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="8">
         <f t="shared" si="1"/>
         <v>-14.322456318708415</v>
       </c>
@@ -7347,86 +7405,94 @@
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="5"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="8"/>
+      <c r="B24" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="11" t="s">
+      <c r="F24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G24" s="5"/>
+      <c r="G24" s="8" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B25" s="11">
+      <c r="B25" s="8">
         <f xml:space="preserve"> (B10 - B7)*1000/B7</f>
         <v>0.37041610075319342</v>
       </c>
-      <c r="C25" s="11">
-        <f t="shared" ref="C25:F26" si="2" xml:space="preserve"> (C10 - C7)*1000/C7</f>
+      <c r="C25" s="8">
+        <f t="shared" ref="C25:G26" si="2" xml:space="preserve"> (C10 - C7)*1000/C7</f>
         <v>0.41604661897547596</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="8">
         <f t="shared" si="2"/>
         <v>29.535864978902886</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="8">
         <f t="shared" si="2"/>
         <v>0.5313617282919757</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F25" s="8">
         <f t="shared" si="2"/>
         <v>-272.72727272727275</v>
       </c>
-      <c r="G25" s="5"/>
+      <c r="G25" s="8">
+        <f t="shared" si="2"/>
+        <v>-272.45787919945212</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B26" s="11">
+      <c r="B26" s="8">
         <f xml:space="preserve"> (B11 - B8)*1000/B8</f>
         <v>36.552100381887712</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="8">
         <f t="shared" ref="C26:E26" si="3" xml:space="preserve"> (C11 - C8)*1000/C8</f>
         <v>1.0027968269733534</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="8">
         <f t="shared" si="3"/>
         <v>-226.88039457459925</v>
       </c>
-      <c r="E26" s="11">
+      <c r="E26" s="8">
         <f t="shared" si="3"/>
         <v>5.3133551180893177E-2</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="8">
         <f t="shared" si="2"/>
         <v>-272.72727272727275</v>
       </c>
-      <c r="G26" s="5"/>
+      <c r="G26" s="8">
+        <f t="shared" si="2"/>
+        <v>-246.14392699499072</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
@@ -7435,7 +7501,7 @@
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="15"/>
+      <c r="G27" s="10"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E29" s="1"/>
@@ -7445,11 +7511,11 @@
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A23:F23"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="A5:E5"/>
     <mergeCell ref="A15:D15"/>
     <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
